--- a/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2287,7 +2287,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3389,7 +3389,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4499,7 +4499,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5579,7 +5579,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6683,7 +6683,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7795,7 +7795,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.80931713</v>
+        <v>44341.376689815</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8907,7 +8907,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
@@ -825,13 +825,25 @@
     <t>H</t>
   </si>
   <si>
+    <t>KuBV-opdracht 1</t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>KuBV-opdracht 2</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
+    <t>KuBV-opdracht 3</t>
+  </si>
+  <si>
     <t>eindJaar</t>
+  </si>
+  <si>
+    <t>KuBV-opdracht 4</t>
   </si>
   <si>
     <t>vandaag</t>
@@ -850,18 +862,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>KuBV-opdracht 1</t>
-  </si>
-  <si>
-    <t>KuBV-opdracht 2</t>
-  </si>
-  <si>
-    <t>KuBV-opdracht 3</t>
-  </si>
-  <si>
-    <t>KuBV-opdracht 4</t>
   </si>
   <si>
     <t>KuBV-opdracht 1: Leporello</t>
@@ -2264,21 +2264,27 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1082</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>3</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2289,26 +2295,32 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1083</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -2319,26 +2331,32 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>257</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1084</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2349,27 +2367,33 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1085</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -2380,11 +2404,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2411,7 +2435,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2442,7 +2466,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2463,7 +2487,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2493,7 +2517,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2514,7 +2538,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3351,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>3</v>
@@ -3373,7 +3397,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3387,7 +3411,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>3</v>
@@ -3409,7 +3433,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>152</v>
@@ -3423,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>3</v>
@@ -3445,7 +3469,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3460,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -3482,11 +3506,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3513,7 +3537,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3544,7 +3568,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3565,7 +3589,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3595,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3616,7 +3640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3697,99 +3721,131 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1078</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>3</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1079</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>3</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1080</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1081</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -4469,7 +4525,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4499,7 +4555,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>153</v>
@@ -4529,7 +4585,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4560,11 +4616,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4591,7 +4647,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4622,7 +4678,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4643,7 +4699,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4673,7 +4729,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4694,7 +4750,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5554,21 +5610,27 @@
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1094</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>3</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -5579,26 +5641,32 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1095</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -5609,26 +5677,32 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>258</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1096</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -5639,27 +5713,33 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1097</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>4</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -5670,11 +5750,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5701,7 +5781,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5732,7 +5812,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5753,7 +5833,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5783,7 +5863,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5804,7 +5884,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6643,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>3</v>
@@ -6665,7 +6745,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6679,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>3</v>
@@ -6701,7 +6781,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>154</v>
@@ -6715,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>3</v>
@@ -6737,7 +6817,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6752,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -6774,11 +6854,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6805,7 +6885,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6836,7 +6916,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6857,7 +6937,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6887,7 +6967,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6908,7 +6988,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6989,21 +7069,27 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1090</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="23">
+        <v>3</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -7013,21 +7099,27 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1091</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="23">
+        <v>3</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -7037,51 +7129,71 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1092</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="26"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>1</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1093</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>3</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -7763,7 +7875,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7793,7 +7905,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>155</v>
@@ -7823,7 +7935,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7854,11 +7966,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7885,7 +7997,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7916,7 +8028,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7937,7 +8049,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7967,7 +8079,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7988,7 +8100,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8371,99 +8483,131 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1086</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1087</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>3</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1088</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>87</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K32" s="26"/>
       <c r="L32" s="23"/>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>3</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>1089</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N33" s="27">
+        <v>1</v>
+      </c>
       <c r="O33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
@@ -8875,7 +9019,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8905,7 +9049,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>156</v>
@@ -8935,7 +9079,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -8966,11 +9110,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382789352</v>
+        <v>44342.629988426</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8997,7 +9141,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9028,7 +9172,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9049,7 +9193,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9079,7 +9223,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9100,7 +9244,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUBV PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>KuBV-opdracht 1</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2370,7 +2373,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2436,7 +2439,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2449,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -2464,7 +2467,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>257</v>
@@ -2543,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -2558,7 +2561,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2624,7 +2627,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2638,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2719,11 +2722,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2897,7 +2900,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2920,7 +2923,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2959,7 +2962,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4630,7 +4633,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4696,7 +4699,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4709,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -4724,7 +4727,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4790,7 +4793,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>152</v>
@@ -4803,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -4818,7 +4821,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4884,7 +4887,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4898,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -4913,7 +4916,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4979,11 +4982,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5068,7 +5071,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5157,7 +5160,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5180,7 +5183,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5219,7 +5222,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5370,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5445,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5460,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5535,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5550,10 +5553,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5625,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5640,10 +5643,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -6982,7 +6985,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7070,7 +7073,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>153</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7247,11 +7250,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7336,7 +7339,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7425,7 +7428,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7448,7 +7451,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7487,7 +7490,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7517,7 +7520,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7623,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7638,10 +7641,10 @@
         <v>3</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7713,7 +7716,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7728,10 +7731,10 @@
         <v>3</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7803,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7818,10 +7821,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -7893,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -7908,10 +7911,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -9165,7 +9168,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>1094</v>
@@ -9190,7 +9193,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9256,7 +9259,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9269,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -9284,7 +9287,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9350,7 +9353,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>258</v>
@@ -9363,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -9378,7 +9381,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9444,7 +9447,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9458,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9473,7 +9476,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9539,11 +9542,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9628,7 +9631,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9740,7 +9743,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9779,7 +9782,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9809,7 +9812,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11427,7 +11430,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>503</v>
@@ -11452,7 +11455,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11518,7 +11521,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11531,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -11546,7 +11549,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11612,7 +11615,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>154</v>
@@ -11625,7 +11628,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -11640,7 +11643,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11706,7 +11709,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11720,7 +11723,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11735,7 +11738,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11801,11 +11804,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11890,7 +11893,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11979,7 +11982,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12002,7 +12005,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12041,7 +12044,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12071,7 +12074,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12177,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -12192,7 +12195,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12265,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -12280,7 +12283,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12353,7 +12356,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -12370,10 +12373,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12445,7 +12448,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -12462,10 +12465,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -13721,7 +13724,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13806,7 +13809,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13894,7 +13897,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>155</v>
@@ -13982,7 +13985,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14071,11 +14074,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14160,7 +14163,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14249,7 +14252,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14272,7 +14275,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14311,7 +14314,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14341,7 +14344,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14447,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -14462,7 +14465,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14535,7 +14538,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -14550,7 +14553,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14623,7 +14626,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -14640,10 +14643,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14715,7 +14718,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -14732,10 +14735,10 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -15134,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15149,10 +15152,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15224,7 +15227,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15239,10 +15242,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15314,7 +15317,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15329,10 +15332,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -16015,7 +16018,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16100,7 +16103,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16188,7 +16191,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>156</v>
@@ -16276,7 +16279,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16365,11 +16368,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16454,7 +16457,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16543,7 +16546,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16566,7 +16569,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16605,7 +16608,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16635,7 +16638,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17396,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17411,10 +17414,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17486,7 +17489,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17501,10 +17504,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17576,7 +17579,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17591,10 +17594,10 @@
         <v>3</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -17666,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17681,10 +17684,10 @@
         <v>1</v>
       </c>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
